--- a/Анализ рынка.xlsx
+++ b/Анализ рынка.xlsx
@@ -19,25 +19,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Конкуренты, аналоги</t>
   </si>
   <si>
-    <t>RunKeeper</t>
+    <t>Nike+ Run Club</t>
+  </si>
+  <si>
+    <t>млн. польз</t>
+  </si>
+  <si>
+    <t>Статистика</t>
+  </si>
+  <si>
+    <t>Геймификации</t>
+  </si>
+  <si>
+    <t>Рейтинги</t>
+  </si>
+  <si>
+    <t>ShareResult</t>
+  </si>
+  <si>
+    <t>Программа тренировок</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>STRAVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,8 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -342,28 +383,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>